--- a/biology/Médecine/Carla_Vizzotti/Carla_Vizzotti.xlsx
+++ b/biology/Médecine/Carla_Vizzotti/Carla_Vizzotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carla Vizzotti, née le 1er avril 1972 à Buenos Aires, est un médecin et une femme politique argentine. Elle est ministre de la Santé de 2021 à 2023.
@@ -512,16 +524,88 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille d'un gastro-entérologue, elle étudie la médecine à l'Université del Salvador (Buenos Aires). Diplômée en 1997, elle se spécialise en médecine interne à l'Université de Buenos Aires[1].
-Carla Vizzotti est la fondatrice et la présidente de la Société argentine de vaccinologie et d'épidémiologie. Elle travaille aussi à la Fondation Huésped, une ONG qui lutte contre le VIH/sida[1].
-De 2007 à 2016, au sein du ministère de la Santé, elle dirige la Direction nationale pour le contrôle des maladies évitables par la vaccination[1]. À ce titre, elle met sur pied le Plan national d'immunisation et supervise l'extension du programme de vaccination gratuite et obligatoire à 19 vaccins.
-Vice-ministre de la Santé
-Le 19 décembre 2019, elle est nommée Secrétaire d'État aux soins de santé dans le nouveau gouvernement d'Alberto Fernández, sous l'autorité du ministre de la Santé Ginés González García[1].
-En 2020, elle prend une part importante dans l'action du gouvernement contre la pandémie de covid-19 et présente les comptes-rendus quotidiens sur les chiffres de l'épidémie[1]. En décembre, elle conduit la délégation argentine qui va négocier en Russie l'achat de 300 000 doses du vaccin Spoutnik V développé par l'Institut Galameya[2].
-Ministre de la Santé
-Le 19 février 2021, elle remplace le ministre de la Santé, Ginés González García, obligé de démissionner après qu'il a facilité l'accès à la vaccination à des proches[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille d'un gastro-entérologue, elle étudie la médecine à l'Université del Salvador (Buenos Aires). Diplômée en 1997, elle se spécialise en médecine interne à l'Université de Buenos Aires.
+Carla Vizzotti est la fondatrice et la présidente de la Société argentine de vaccinologie et d'épidémiologie. Elle travaille aussi à la Fondation Huésped, une ONG qui lutte contre le VIH/sida.
+De 2007 à 2016, au sein du ministère de la Santé, elle dirige la Direction nationale pour le contrôle des maladies évitables par la vaccination. À ce titre, elle met sur pied le Plan national d'immunisation et supervise l'extension du programme de vaccination gratuite et obligatoire à 19 vaccins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carla_Vizzotti</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carla_Vizzotti</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vice-ministre de la Santé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 décembre 2019, elle est nommée Secrétaire d'État aux soins de santé dans le nouveau gouvernement d'Alberto Fernández, sous l'autorité du ministre de la Santé Ginés González García.
+En 2020, elle prend une part importante dans l'action du gouvernement contre la pandémie de covid-19 et présente les comptes-rendus quotidiens sur les chiffres de l'épidémie. En décembre, elle conduit la délégation argentine qui va négocier en Russie l'achat de 300 000 doses du vaccin Spoutnik V développé par l'Institut Galameya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carla_Vizzotti</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carla_Vizzotti</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ministre de la Santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 19 février 2021, elle remplace le ministre de la Santé, Ginés González García, obligé de démissionner après qu'il a facilité l'accès à la vaccination à des proches.
 </t>
         </is>
       </c>
